--- a/data/lipids_metabolites/metabolomics/metabolite_data.xlsx
+++ b/data/lipids_metabolites/metabolomics/metabolite_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/larval_symbiont_TPC/data/lipids_metabolites/metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81914E0-F8B5-BA4B-8A85-6C4AB1502780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648591B2-F8CD-F94C-A201-809C31FAEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="22360" windowHeight="16100" xr2:uid="{3459B265-351D-4960-A007-8A07A7199096}"/>
   </bookViews>
@@ -248,30 +248,6 @@
     <t>65_PBQC-M3_UNK-0011_22052024_8 : Area</t>
   </si>
   <si>
-    <t>JM-PBQC_002_UNK-0005_22052024_2 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_003_UNK-0015_22052024_12 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_004_UNK-0024_22052024_21 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_005_UNK-0034_22052024_31 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_006_UNK-0044_22052024_41 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_007_UNK-0054_22052024_51 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_008_UNK-0064_22052024_61 : Area</t>
-  </si>
-  <si>
-    <t>JM-PBQC_009_UNK-0074_22052024_71 : Area</t>
-  </si>
-  <si>
     <t>Dimethylglycine-TMS</t>
   </si>
   <si>
@@ -2148,6 +2124,30 @@
   </si>
   <si>
     <t>Ergosterol-TMS</t>
+  </si>
+  <si>
+    <t>JM_PBQC-002_UNK-0005_22052024_2 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-003_UNK-0015_22052024_12 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-004_UNK-0024_22052024_21 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-005_UNK-0034_22052024_31 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-006_UNK-0044_22052024_41 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-007_UNK-0054_22052024_51 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-008_UNK-0064_22052024_61 : Area</t>
+  </si>
+  <si>
+    <t>JM_PBQC-009_UNK-0074_22052024_71 : Area</t>
   </si>
 </sst>
 </file>
@@ -2361,14 +2361,14 @@
     <tableColumn id="65" xr3:uid="{239647AE-E6F3-4BCF-A25D-878DE006498D}" uniqueName="65" name="63_EB-9M_UNK-0070_22052024_67 : Area" queryTableFieldId="65"/>
     <tableColumn id="66" xr3:uid="{4C5CE41B-3DFD-4A0E-82D9-8C5C4236407A}" uniqueName="66" name="64_PBQC-M2_UNK-0036_22052024_33 : Area" queryTableFieldId="66"/>
     <tableColumn id="67" xr3:uid="{A9BD6BA0-890E-484D-9992-65C63226E044}" uniqueName="67" name="65_PBQC-M3_UNK-0011_22052024_8 : Area" queryTableFieldId="67"/>
-    <tableColumn id="68" xr3:uid="{78848FA9-F663-4FA5-91CE-9149D16E3441}" uniqueName="68" name="JM-PBQC_002_UNK-0005_22052024_2 : Area" queryTableFieldId="68"/>
-    <tableColumn id="69" xr3:uid="{92BDF9F8-8ECB-4065-8E27-EE9D7424492B}" uniqueName="69" name="JM-PBQC_003_UNK-0015_22052024_12 : Area" queryTableFieldId="69"/>
-    <tableColumn id="70" xr3:uid="{2642F118-91FF-44BA-A04C-D8CE6ED3F5D1}" uniqueName="70" name="JM-PBQC_004_UNK-0024_22052024_21 : Area" queryTableFieldId="70"/>
-    <tableColumn id="71" xr3:uid="{E50B079E-5C57-4F1C-8A88-F407243B4C95}" uniqueName="71" name="JM-PBQC_005_UNK-0034_22052024_31 : Area" queryTableFieldId="71"/>
-    <tableColumn id="72" xr3:uid="{FD5EAEB2-3E34-45FC-A6C7-F92BD5264A71}" uniqueName="72" name="JM-PBQC_006_UNK-0044_22052024_41 : Area" queryTableFieldId="72"/>
-    <tableColumn id="73" xr3:uid="{6CE85971-4D5B-42C9-A610-BBF161FFD891}" uniqueName="73" name="JM-PBQC_007_UNK-0054_22052024_51 : Area" queryTableFieldId="73"/>
-    <tableColumn id="74" xr3:uid="{6619FA40-BCFE-4502-9F01-2DC782A7AD74}" uniqueName="74" name="JM-PBQC_008_UNK-0064_22052024_61 : Area" queryTableFieldId="74"/>
-    <tableColumn id="75" xr3:uid="{DAAE8323-7B80-493F-B161-2AC1B5EE4E3E}" uniqueName="75" name="JM-PBQC_009_UNK-0074_22052024_71 : Area" queryTableFieldId="75"/>
+    <tableColumn id="68" xr3:uid="{78848FA9-F663-4FA5-91CE-9149D16E3441}" uniqueName="68" name="JM_PBQC-002_UNK-0005_22052024_2 : Area" queryTableFieldId="68"/>
+    <tableColumn id="69" xr3:uid="{92BDF9F8-8ECB-4065-8E27-EE9D7424492B}" uniqueName="69" name="JM_PBQC-003_UNK-0015_22052024_12 : Area" queryTableFieldId="69"/>
+    <tableColumn id="70" xr3:uid="{2642F118-91FF-44BA-A04C-D8CE6ED3F5D1}" uniqueName="70" name="JM_PBQC-004_UNK-0024_22052024_21 : Area" queryTableFieldId="70"/>
+    <tableColumn id="71" xr3:uid="{E50B079E-5C57-4F1C-8A88-F407243B4C95}" uniqueName="71" name="JM_PBQC-005_UNK-0034_22052024_31 : Area" queryTableFieldId="71"/>
+    <tableColumn id="72" xr3:uid="{FD5EAEB2-3E34-45FC-A6C7-F92BD5264A71}" uniqueName="72" name="JM_PBQC-006_UNK-0044_22052024_41 : Area" queryTableFieldId="72"/>
+    <tableColumn id="73" xr3:uid="{6CE85971-4D5B-42C9-A610-BBF161FFD891}" uniqueName="73" name="JM_PBQC-007_UNK-0054_22052024_51 : Area" queryTableFieldId="73"/>
+    <tableColumn id="74" xr3:uid="{6619FA40-BCFE-4502-9F01-2DC782A7AD74}" uniqueName="74" name="JM_PBQC-008_UNK-0064_22052024_61 : Area" queryTableFieldId="74"/>
+    <tableColumn id="75" xr3:uid="{DAAE8323-7B80-493F-B161-2AC1B5EE4E3E}" uniqueName="75" name="JM_PBQC-009_UNK-0074_22052024_71 : Area" queryTableFieldId="75"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:BV627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2702,10 @@
     <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="74" width="10.33203125" customWidth="1"/>
+    <col min="4" max="64" width="10.33203125" customWidth="1"/>
+    <col min="65" max="66" width="17.6640625" customWidth="1"/>
+    <col min="67" max="67" width="19.5" customWidth="1"/>
+    <col min="68" max="74" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.2">
@@ -2905,33 +2908,33 @@
         <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>66</v>
+        <v>692</v>
       </c>
       <c r="BP1" t="s">
-        <v>67</v>
+        <v>693</v>
       </c>
       <c r="BQ1" t="s">
-        <v>68</v>
+        <v>694</v>
       </c>
       <c r="BR1" t="s">
-        <v>69</v>
+        <v>695</v>
       </c>
       <c r="BS1" t="s">
-        <v>70</v>
+        <v>696</v>
       </c>
       <c r="BT1" t="s">
-        <v>71</v>
+        <v>697</v>
       </c>
       <c r="BU1" t="s">
-        <v>72</v>
+        <v>698</v>
       </c>
       <c r="BV1" t="s">
-        <v>73</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>100605</v>
@@ -3155,7 +3158,7 @@
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D3">
         <v>1002</v>
@@ -3259,7 +3262,7 @@
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L5">
         <v>2101</v>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C6">
         <v>2118</v>
@@ -3571,17 +3574,17 @@
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B9">
         <v>58730</v>
@@ -3796,12 +3799,12 @@
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>1824987</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E12">
         <v>772</v>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B13">
         <v>12223810</v>
@@ -4338,12 +4341,12 @@
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>54979</v>
@@ -4426,12 +4429,12 @@
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H17">
         <v>1141</v>
@@ -4439,7 +4442,7 @@
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>181</v>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C19">
         <v>6371</v>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>124138</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AP21">
         <v>353</v>
@@ -4771,12 +4774,12 @@
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B23">
         <v>8474</v>
@@ -5000,7 +5003,7 @@
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>1233367</v>
@@ -5182,7 +5185,7 @@
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B25">
         <v>1168</v>
@@ -5343,7 +5346,7 @@
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B26">
         <v>6398</v>
@@ -5519,17 +5522,17 @@
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B29">
         <v>683</v>
@@ -5609,12 +5612,12 @@
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F31">
         <v>2595</v>
@@ -5676,22 +5679,22 @@
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>5788</v>
@@ -5819,22 +5822,22 @@
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="R39">
         <v>467</v>
@@ -5845,37 +5848,37 @@
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <v>2013</v>
@@ -5913,62 +5916,62 @@
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="R58">
         <v>1743</v>
@@ -5985,42 +5988,42 @@
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="W66">
         <v>4614</v>
@@ -6031,17 +6034,17 @@
     </row>
     <row r="67" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>3281</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="70" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>3281</v>
@@ -6189,22 +6192,22 @@
     </row>
     <row r="71" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B74">
         <v>50730</v>
@@ -6287,7 +6290,7 @@
     </row>
     <row r="75" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H75">
         <v>429</v>
@@ -6301,7 +6304,7 @@
     </row>
     <row r="76" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AL76">
         <v>365</v>
@@ -6312,17 +6315,17 @@
     </row>
     <row r="77" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F79">
         <v>844</v>
@@ -6357,12 +6360,12 @@
     </row>
     <row r="80" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G81">
         <v>560</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="82" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B82">
         <v>876</v>
@@ -6417,22 +6420,22 @@
     </row>
     <row r="83" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N86">
         <v>643</v>
@@ -6440,7 +6443,7 @@
     </row>
     <row r="87" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B87">
         <v>373745</v>
@@ -6664,12 +6667,12 @@
     </row>
     <row r="88" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K89">
         <v>36502</v>
@@ -6677,7 +6680,7 @@
     </row>
     <row r="90" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>24446</v>
@@ -6814,7 +6817,7 @@
     </row>
     <row r="91" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D91">
         <v>1475</v>
@@ -6888,12 +6891,12 @@
     </row>
     <row r="92" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>1354</v>
@@ -6931,22 +6934,22 @@
     </row>
     <row r="94" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G97">
         <v>578</v>
@@ -6966,47 +6969,47 @@
     </row>
     <row r="98" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D106">
         <v>431</v>
@@ -7053,27 +7056,27 @@
     </row>
     <row r="107" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BN111">
         <v>516</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="112" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D112">
         <v>1155</v>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="113" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="W113">
         <v>977</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="114" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B114">
         <v>916</v>
@@ -7363,7 +7366,7 @@
     </row>
     <row r="115" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="BF115">
         <v>1161</v>
@@ -7371,7 +7374,7 @@
     </row>
     <row r="116" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B116">
         <v>102773</v>
@@ -7595,12 +7598,12 @@
     </row>
     <row r="117" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M118">
         <v>858</v>
@@ -7641,7 +7644,7 @@
     </row>
     <row r="119" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="BN119">
         <v>384</v>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="120" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C120">
         <v>1011</v>
@@ -7813,7 +7816,7 @@
     </row>
     <row r="121" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B121">
         <v>6893</v>
@@ -7944,7 +7947,7 @@
     </row>
     <row r="122" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C122">
         <v>4889</v>
@@ -8003,17 +8006,17 @@
     </row>
     <row r="123" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O125">
         <v>4545</v>
@@ -8024,7 +8027,7 @@
     </row>
     <row r="126" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AF126">
         <v>1118</v>
@@ -8047,7 +8050,7 @@
     </row>
     <row r="127" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L127">
         <v>428</v>
@@ -8064,7 +8067,7 @@
     </row>
     <row r="128" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Y128">
         <v>595</v>
@@ -8075,7 +8078,7 @@
     </row>
     <row r="129" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AO129">
         <v>1245</v>
@@ -8083,12 +8086,12 @@
     </row>
     <row r="130" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L131">
         <v>5926</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="132" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G132">
         <v>481</v>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="133" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B133">
         <v>486952</v>
@@ -8349,7 +8352,7 @@
     </row>
     <row r="134" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="N134">
         <v>494</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="135" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F135">
         <v>644</v>
@@ -8392,7 +8395,7 @@
     </row>
     <row r="136" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G136">
         <v>9198</v>
@@ -8400,7 +8403,7 @@
     </row>
     <row r="137" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="Q137">
         <v>5220</v>
@@ -8414,17 +8417,17 @@
     </row>
     <row r="138" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="140" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J140">
         <v>3760</v>
@@ -8456,7 +8459,7 @@
     </row>
     <row r="141" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="BG141">
         <v>5075</v>
@@ -8467,7 +8470,7 @@
     </row>
     <row r="142" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E142">
         <v>276</v>
@@ -8508,12 +8511,12 @@
     </row>
     <row r="143" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L144">
         <v>936</v>
@@ -8530,7 +8533,7 @@
     </row>
     <row r="145" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E145">
         <v>376</v>
@@ -8550,7 +8553,7 @@
     </row>
     <row r="146" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H146">
         <v>408</v>
@@ -8585,12 +8588,12 @@
     </row>
     <row r="147" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L148">
         <v>10140</v>
@@ -8625,17 +8628,17 @@
     </row>
     <row r="149" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="150" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B151">
         <v>1706</v>
@@ -8859,7 +8862,7 @@
     </row>
     <row r="152" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B152">
         <v>4332</v>
@@ -8993,7 +8996,7 @@
     </row>
     <row r="153" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F153">
         <v>555</v>
@@ -9025,7 +9028,7 @@
     </row>
     <row r="154" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B154">
         <v>19208</v>
@@ -9246,12 +9249,12 @@
     </row>
     <row r="155" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D156">
         <v>415</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="157" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G157">
         <v>600</v>
@@ -9366,7 +9369,7 @@
     </row>
     <row r="158" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B158">
         <v>7977</v>
@@ -9581,22 +9584,22 @@
     </row>
     <row r="159" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="161" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B162">
         <v>5383</v>
@@ -9664,12 +9667,12 @@
     </row>
     <row r="163" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B164">
         <v>6198</v>
@@ -9827,7 +9830,7 @@
     </row>
     <row r="165" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="BG165">
         <v>710</v>
@@ -9835,7 +9838,7 @@
     </row>
     <row r="166" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F166">
         <v>2756</v>
@@ -9912,7 +9915,7 @@
     </row>
     <row r="167" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B167">
         <v>2192</v>
@@ -10055,7 +10058,7 @@
     </row>
     <row r="168" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="R168">
         <v>659</v>
@@ -10072,7 +10075,7 @@
     </row>
     <row r="169" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AQ169">
         <v>1035</v>
@@ -10080,12 +10083,12 @@
     </row>
     <row r="170" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K171">
         <v>26835</v>
@@ -10093,7 +10096,7 @@
     </row>
     <row r="172" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P172">
         <v>1648</v>
@@ -10110,7 +10113,7 @@
     </row>
     <row r="173" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H173">
         <v>1796</v>
@@ -10178,7 +10181,7 @@
     </row>
     <row r="174" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B174">
         <v>2682</v>
@@ -10318,7 +10321,7 @@
     </row>
     <row r="175" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B175">
         <v>158275</v>
@@ -10542,7 +10545,7 @@
     </row>
     <row r="176" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AX176">
         <v>8693</v>
@@ -10553,12 +10556,12 @@
     </row>
     <row r="177" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B178">
         <v>6253994</v>
@@ -10782,7 +10785,7 @@
     </row>
     <row r="179" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L179">
         <v>1500</v>
@@ -10802,17 +10805,17 @@
     </row>
     <row r="180" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="182" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B182">
         <v>259696</v>
@@ -11036,12 +11039,12 @@
     </row>
     <row r="183" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="184" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="BF184">
         <v>2960</v>
@@ -11049,12 +11052,12 @@
     </row>
     <row r="185" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="L186">
         <v>8633</v>
@@ -11062,7 +11065,7 @@
     </row>
     <row r="187" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C187">
         <v>3904</v>
@@ -11181,27 +11184,27 @@
     </row>
     <row r="188" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="189" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="190" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="191" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C192">
         <v>7538</v>
@@ -11263,7 +11266,7 @@
     </row>
     <row r="193" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E193">
         <v>2728</v>
@@ -11349,7 +11352,7 @@
     </row>
     <row r="194" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B194">
         <v>6549</v>
@@ -11573,17 +11576,17 @@
     </row>
     <row r="195" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AO197">
         <v>528</v>
@@ -11591,22 +11594,22 @@
     </row>
     <row r="198" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B201">
         <v>578</v>
@@ -11638,7 +11641,7 @@
     </row>
     <row r="202" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="R202">
         <v>5302</v>
@@ -11670,12 +11673,12 @@
     </row>
     <row r="203" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="204" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L204">
         <v>5048</v>
@@ -11692,7 +11695,7 @@
     </row>
     <row r="205" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L205">
         <v>695</v>
@@ -11733,12 +11736,12 @@
     </row>
     <row r="206" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="207" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B207">
         <v>3849</v>
@@ -11962,17 +11965,17 @@
     </row>
     <row r="208" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="209" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="210" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I210">
         <v>1570</v>
@@ -12040,12 +12043,12 @@
     </row>
     <row r="211" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="212" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B212">
         <v>2093</v>
@@ -12104,7 +12107,7 @@
     </row>
     <row r="213" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B213">
         <v>31187</v>
@@ -12328,7 +12331,7 @@
     </row>
     <row r="214" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B214">
         <v>247365</v>
@@ -12537,17 +12540,17 @@
     </row>
     <row r="215" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="BA217">
         <v>585</v>
@@ -12555,7 +12558,7 @@
     </row>
     <row r="218" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K218">
         <v>1255</v>
@@ -12578,7 +12581,7 @@
     </row>
     <row r="219" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>5798</v>
@@ -12604,7 +12607,7 @@
     </row>
     <row r="220" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B220">
         <v>28582</v>
@@ -12630,7 +12633,7 @@
     </row>
     <row r="221" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E221">
         <v>919</v>
@@ -12755,7 +12758,7 @@
     </row>
     <row r="222" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="X222">
         <v>844</v>
@@ -12763,7 +12766,7 @@
     </row>
     <row r="223" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D223">
         <v>28</v>
@@ -12792,7 +12795,7 @@
     </row>
     <row r="224" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B224">
         <v>4923</v>
@@ -13007,22 +13010,22 @@
     </row>
     <row r="225" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="226" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="227" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="J228">
         <v>363</v>
@@ -13102,7 +13105,7 @@
     </row>
     <row r="229" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B229">
         <v>4555</v>
@@ -13236,7 +13239,7 @@
     </row>
     <row r="230" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Z230">
         <v>839</v>
@@ -13244,7 +13247,7 @@
     </row>
     <row r="231" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B231">
         <v>7067</v>
@@ -13450,7 +13453,7 @@
     </row>
     <row r="232" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B232">
         <v>7115</v>
@@ -13674,7 +13677,7 @@
     </row>
     <row r="233" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D233">
         <v>810</v>
@@ -13697,12 +13700,12 @@
     </row>
     <row r="234" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="235" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D235">
         <v>3905</v>
@@ -13779,7 +13782,7 @@
     </row>
     <row r="236" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L236">
         <v>7214</v>
@@ -13820,12 +13823,12 @@
     </row>
     <row r="237" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="238" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C238">
         <v>2568</v>
@@ -13887,7 +13890,7 @@
     </row>
     <row r="239" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B239">
         <v>5738</v>
@@ -14009,7 +14012,7 @@
     </row>
     <row r="240" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B240">
         <v>1017</v>
@@ -14113,7 +14116,7 @@
     </row>
     <row r="241" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I241">
         <v>818</v>
@@ -14136,7 +14139,7 @@
     </row>
     <row r="242" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AF242">
         <v>5770</v>
@@ -14150,42 +14153,42 @@
     </row>
     <row r="243" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="244" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="245" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="248" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="249" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="250" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q250">
         <v>4113</v>
@@ -14226,7 +14229,7 @@
     </row>
     <row r="251" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P251">
         <v>5528</v>
@@ -14246,7 +14249,7 @@
     </row>
     <row r="252" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B252">
         <v>4557</v>
@@ -14419,7 +14422,7 @@
     </row>
     <row r="253" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D253">
         <v>406</v>
@@ -14526,7 +14529,7 @@
     </row>
     <row r="254" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E254">
         <v>5700</v>
@@ -14573,12 +14576,12 @@
     </row>
     <row r="255" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C256">
         <v>638</v>
@@ -14706,7 +14709,7 @@
     </row>
     <row r="257" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B257">
         <v>4340</v>
@@ -14849,7 +14852,7 @@
     </row>
     <row r="258" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B258">
         <v>20498</v>
@@ -14941,7 +14944,7 @@
     </row>
     <row r="259" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B259">
         <v>546</v>
@@ -15099,7 +15102,7 @@
     </row>
     <row r="260" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="J260">
         <v>1471</v>
@@ -15155,7 +15158,7 @@
     </row>
     <row r="261" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B261">
         <v>37248</v>
@@ -15214,7 +15217,7 @@
     </row>
     <row r="262" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D262">
         <v>2994</v>
@@ -15264,7 +15267,7 @@
     </row>
     <row r="263" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B263">
         <v>69057</v>
@@ -15404,7 +15407,7 @@
     </row>
     <row r="264" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E264">
         <v>970</v>
@@ -15439,22 +15442,22 @@
     </row>
     <row r="265" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="268" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="L268">
         <v>632</v>
@@ -15468,7 +15471,7 @@
     </row>
     <row r="269" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="BU269">
         <v>1006</v>
@@ -15476,12 +15479,12 @@
     </row>
     <row r="270" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="271" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AQ271">
         <v>1435</v>
@@ -15489,7 +15492,7 @@
     </row>
     <row r="272" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E272">
         <v>1646</v>
@@ -15554,12 +15557,12 @@
     </row>
     <row r="273" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="274" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B274">
         <v>233873</v>
@@ -15678,7 +15681,7 @@
     </row>
     <row r="275" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C275">
         <v>358</v>
@@ -15803,7 +15806,7 @@
     </row>
     <row r="276" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C276">
         <v>4364</v>
@@ -15940,17 +15943,17 @@
     </row>
     <row r="277" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="278" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="279" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="Z279">
         <v>708</v>
@@ -15961,7 +15964,7 @@
     </row>
     <row r="280" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B280">
         <v>411735</v>
@@ -16185,7 +16188,7 @@
     </row>
     <row r="281" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C281">
         <v>18775</v>
@@ -16256,7 +16259,7 @@
     </row>
     <row r="282" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D282">
         <v>4552</v>
@@ -16414,7 +16417,7 @@
     </row>
     <row r="283" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B283">
         <v>7977</v>
@@ -16635,7 +16638,7 @@
     </row>
     <row r="284" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AN284">
         <v>775</v>
@@ -16646,7 +16649,7 @@
     </row>
     <row r="285" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="BG285">
         <v>553</v>
@@ -16654,12 +16657,12 @@
     </row>
     <row r="286" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="287" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X287">
         <v>2320</v>
@@ -16685,12 +16688,12 @@
     </row>
     <row r="288" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="289" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C289">
         <v>14928</v>
@@ -16773,12 +16776,12 @@
     </row>
     <row r="290" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="291" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L291">
         <v>848</v>
@@ -16786,7 +16789,7 @@
     </row>
     <row r="292" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E292">
         <v>1373</v>
@@ -16821,7 +16824,7 @@
     </row>
     <row r="293" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B293">
         <v>3679</v>
@@ -17045,22 +17048,22 @@
     </row>
     <row r="294" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="296" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C297">
         <v>536</v>
@@ -17176,7 +17179,7 @@
     </row>
     <row r="298" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C298">
         <v>1217</v>
@@ -17265,7 +17268,7 @@
     </row>
     <row r="299" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B299">
         <v>21909</v>
@@ -17489,7 +17492,7 @@
     </row>
     <row r="300" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L300">
         <v>473</v>
@@ -17497,7 +17500,7 @@
     </row>
     <row r="301" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B301">
         <v>686</v>
@@ -17592,7 +17595,7 @@
     </row>
     <row r="302" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B302">
         <v>1150779</v>
@@ -17816,7 +17819,7 @@
     </row>
     <row r="303" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B303">
         <v>45832</v>
@@ -18040,12 +18043,12 @@
     </row>
     <row r="304" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B305">
         <v>158254</v>
@@ -18269,7 +18272,7 @@
     </row>
     <row r="306" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J306">
         <v>38478</v>
@@ -18286,7 +18289,7 @@
     </row>
     <row r="307" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B307">
         <v>387532</v>
@@ -18510,12 +18513,12 @@
     </row>
     <row r="308" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="309" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="J309">
         <v>11045</v>
@@ -18535,12 +18538,12 @@
     </row>
     <row r="310" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="311" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B311">
         <v>539530</v>
@@ -18662,17 +18665,17 @@
     </row>
     <row r="312" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="314" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C314">
         <v>1259</v>
@@ -18782,22 +18785,22 @@
     </row>
     <row r="315" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="316" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="317" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="318" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B318">
         <v>4471</v>
@@ -18892,7 +18895,7 @@
     </row>
     <row r="319" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="U319">
         <v>377</v>
@@ -18903,7 +18906,7 @@
     </row>
     <row r="320" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B320">
         <v>1040</v>
@@ -19028,7 +19031,7 @@
     </row>
     <row r="321" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C321">
         <v>1003</v>
@@ -19105,7 +19108,7 @@
     </row>
     <row r="322" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="BN322">
         <v>960</v>
@@ -19113,27 +19116,27 @@
     </row>
     <row r="323" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="324" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="325" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="326" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="327" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="O327">
         <v>399</v>
@@ -19141,12 +19144,12 @@
     </row>
     <row r="328" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="329" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C329">
         <v>1904</v>
@@ -19178,7 +19181,7 @@
     </row>
     <row r="330" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C330">
         <v>1859</v>
@@ -19273,7 +19276,7 @@
     </row>
     <row r="331" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B331">
         <v>2144859</v>
@@ -19497,7 +19500,7 @@
     </row>
     <row r="332" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="BA332">
         <v>753</v>
@@ -19505,7 +19508,7 @@
     </row>
     <row r="333" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M333">
         <v>1594</v>
@@ -19519,7 +19522,7 @@
     </row>
     <row r="334" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F334">
         <v>1019</v>
@@ -19551,7 +19554,7 @@
     </row>
     <row r="335" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E335">
         <v>786</v>
@@ -19571,17 +19574,17 @@
     </row>
     <row r="336" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="337" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="I338">
         <v>5434</v>
@@ -19640,7 +19643,7 @@
     </row>
     <row r="339" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AV339">
         <v>1222</v>
@@ -19648,7 +19651,7 @@
     </row>
     <row r="340" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B340">
         <v>30177</v>
@@ -19872,7 +19875,7 @@
     </row>
     <row r="341" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B341">
         <v>51042</v>
@@ -20096,7 +20099,7 @@
     </row>
     <row r="342" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="Z342">
         <v>539</v>
@@ -20104,7 +20107,7 @@
     </row>
     <row r="343" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B343">
         <v>131401</v>
@@ -20328,12 +20331,12 @@
     </row>
     <row r="344" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="345" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="BJ345">
         <v>677</v>
@@ -20344,12 +20347,12 @@
     </row>
     <row r="346" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="347" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B347">
         <v>46907</v>
@@ -20573,7 +20576,7 @@
     </row>
     <row r="348" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C348">
         <v>4125</v>
@@ -20620,7 +20623,7 @@
     </row>
     <row r="349" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="AF349">
         <v>2171</v>
@@ -20640,37 +20643,37 @@
     </row>
     <row r="350" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="351" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="352" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="353" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="354" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="356" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D356">
         <v>675</v>
@@ -20756,17 +20759,17 @@
     </row>
     <row r="357" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="358" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="359" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O359">
         <v>3213</v>
@@ -20816,7 +20819,7 @@
     </row>
     <row r="360" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B360">
         <v>3629</v>
@@ -20926,7 +20929,7 @@
     </row>
     <row r="361" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C361">
         <v>4555</v>
@@ -21000,7 +21003,7 @@
     </row>
     <row r="362" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E362">
         <v>5107</v>
@@ -21092,7 +21095,7 @@
     </row>
     <row r="363" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B363">
         <v>1172</v>
@@ -21253,22 +21256,22 @@
     </row>
     <row r="364" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="365" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="366" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="367" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B367">
         <v>1582241</v>
@@ -21492,7 +21495,7 @@
     </row>
     <row r="368" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="L368">
         <v>5904</v>
@@ -21536,7 +21539,7 @@
     </row>
     <row r="369" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="AA369">
         <v>7975</v>
@@ -21544,12 +21547,12 @@
     </row>
     <row r="370" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="371" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="BV371">
         <v>12069</v>
@@ -21557,17 +21560,17 @@
     </row>
     <row r="372" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="373" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="374" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B374">
         <v>1724</v>
@@ -21680,7 +21683,7 @@
     </row>
     <row r="375" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B375">
         <v>220539</v>
@@ -21904,7 +21907,7 @@
     </row>
     <row r="376" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B376">
         <v>5526</v>
@@ -22128,17 +22131,17 @@
     </row>
     <row r="377" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="378" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="379" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E379">
         <v>496</v>
@@ -22164,7 +22167,7 @@
     </row>
     <row r="380" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B380">
         <v>1944</v>
@@ -22325,7 +22328,7 @@
     </row>
     <row r="381" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B381">
         <v>10546</v>
@@ -22468,7 +22471,7 @@
     </row>
     <row r="382" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K382">
         <v>1683</v>
@@ -22506,12 +22509,12 @@
     </row>
     <row r="383" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="384" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L384">
         <v>743</v>
@@ -22525,7 +22528,7 @@
     </row>
     <row r="385" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q385">
         <v>3608</v>
@@ -22536,7 +22539,7 @@
     </row>
     <row r="386" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="L386">
         <v>2736</v>
@@ -22544,7 +22547,7 @@
     </row>
     <row r="387" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C387">
         <v>3256</v>
@@ -22624,7 +22627,7 @@
     </row>
     <row r="388" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="I388">
         <v>870</v>
@@ -22638,7 +22641,7 @@
     </row>
     <row r="389" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B389">
         <v>12115</v>
@@ -22862,12 +22865,12 @@
     </row>
     <row r="390" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="391" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AF391">
         <v>1354</v>
@@ -22875,7 +22878,7 @@
     </row>
     <row r="392" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D392">
         <v>1679</v>
@@ -22937,7 +22940,7 @@
     </row>
     <row r="393" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D393">
         <v>676</v>
@@ -22966,7 +22969,7 @@
     </row>
     <row r="394" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F394">
         <v>1961</v>
@@ -23100,17 +23103,17 @@
     </row>
     <row r="395" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="396" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="397" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B397">
         <v>1492</v>
@@ -23184,12 +23187,12 @@
     </row>
     <row r="398" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="399" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="L399">
         <v>802</v>
@@ -23233,12 +23236,12 @@
     </row>
     <row r="400" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="401" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F401">
         <v>421</v>
@@ -23303,7 +23306,7 @@
     </row>
     <row r="402" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E402">
         <v>630</v>
@@ -23386,7 +23389,7 @@
     </row>
     <row r="403" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E403">
         <v>691</v>
@@ -23448,12 +23451,12 @@
     </row>
     <row r="404" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="405" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B405">
         <v>1109</v>
@@ -23677,17 +23680,17 @@
     </row>
     <row r="406" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="407" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="408" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B408">
         <v>2227</v>
@@ -23797,12 +23800,12 @@
     </row>
     <row r="409" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L410">
         <v>566</v>
@@ -23819,12 +23822,12 @@
     </row>
     <row r="411" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G412">
         <v>1350</v>
@@ -23862,12 +23865,12 @@
     </row>
     <row r="413" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="414" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B414">
         <v>102</v>
@@ -24091,7 +24094,7 @@
     </row>
     <row r="415" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B415">
         <v>29554</v>
@@ -24315,7 +24318,7 @@
     </row>
     <row r="416" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B416">
         <v>2809</v>
@@ -24344,7 +24347,7 @@
     </row>
     <row r="417" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="N417">
         <v>564</v>
@@ -24385,7 +24388,7 @@
     </row>
     <row r="418" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E418">
         <v>16384</v>
@@ -24486,12 +24489,12 @@
     </row>
     <row r="419" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="420" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q420">
         <v>1083</v>
@@ -24502,7 +24505,7 @@
     </row>
     <row r="421" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D421">
         <v>5698</v>
@@ -24597,7 +24600,7 @@
     </row>
     <row r="422" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M422">
         <v>9322</v>
@@ -24623,7 +24626,7 @@
     </row>
     <row r="423" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="R423">
         <v>810</v>
@@ -24655,17 +24658,17 @@
     </row>
     <row r="424" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="425" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="426" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F426">
         <v>2844</v>
@@ -24709,7 +24712,7 @@
     </row>
     <row r="427" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AC427">
         <v>1651</v>
@@ -24717,7 +24720,7 @@
     </row>
     <row r="428" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E428">
         <v>1233</v>
@@ -24764,27 +24767,27 @@
     </row>
     <row r="429" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="430" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="431" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="432" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="433" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="U433">
         <v>553</v>
@@ -24798,7 +24801,7 @@
     </row>
     <row r="434" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="X434">
         <v>2847</v>
@@ -24827,12 +24830,12 @@
     </row>
     <row r="435" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C436">
         <v>12065</v>
@@ -24981,7 +24984,7 @@
     </row>
     <row r="437" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C437">
         <v>4967</v>
@@ -25082,7 +25085,7 @@
     </row>
     <row r="438" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B438">
         <v>4819</v>
@@ -25189,12 +25192,12 @@
     </row>
     <row r="439" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="440" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B440">
         <v>2234</v>
@@ -25364,7 +25367,7 @@
     </row>
     <row r="441" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C441">
         <v>668</v>
@@ -25384,17 +25387,17 @@
     </row>
     <row r="442" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="443" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="444" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J444">
         <v>947</v>
@@ -25453,7 +25456,7 @@
     </row>
     <row r="445" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D445">
         <v>2051</v>
@@ -25584,27 +25587,27 @@
     </row>
     <row r="446" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="447" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="448" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="449" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="450" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="BH450">
         <v>428</v>
@@ -25612,17 +25615,17 @@
     </row>
     <row r="451" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="452" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="453" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G453">
         <v>923</v>
@@ -25666,12 +25669,12 @@
     </row>
     <row r="454" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="455" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B455">
         <v>458</v>
@@ -25826,7 +25829,7 @@
     </row>
     <row r="456" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L456">
         <v>1308</v>
@@ -25843,7 +25846,7 @@
     </row>
     <row r="457" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M457">
         <v>703</v>
@@ -25863,17 +25866,17 @@
     </row>
     <row r="458" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="459" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="460" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C460">
         <v>2855</v>
@@ -26016,7 +26019,7 @@
     </row>
     <row r="461" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B461">
         <v>4554</v>
@@ -26225,7 +26228,7 @@
     </row>
     <row r="462" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B462">
         <v>49395</v>
@@ -26449,7 +26452,7 @@
     </row>
     <row r="463" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="AI463">
         <v>2734</v>
@@ -26463,7 +26466,7 @@
     </row>
     <row r="464" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B464">
         <v>112488</v>
@@ -26687,7 +26690,7 @@
     </row>
     <row r="465" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AP465">
         <v>1401</v>
@@ -26698,7 +26701,7 @@
     </row>
     <row r="466" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AH466">
         <v>601</v>
@@ -26712,7 +26715,7 @@
     </row>
     <row r="467" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="N467">
         <v>1572</v>
@@ -26735,7 +26738,7 @@
     </row>
     <row r="468" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AH468">
         <v>605</v>
@@ -26743,7 +26746,7 @@
     </row>
     <row r="469" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="BP469">
         <v>1031</v>
@@ -26751,7 +26754,7 @@
     </row>
     <row r="470" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B470">
         <v>6725</v>
@@ -26975,7 +26978,7 @@
     </row>
     <row r="471" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B471">
         <v>44001</v>
@@ -27199,7 +27202,7 @@
     </row>
     <row r="472" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AP472">
         <v>6320</v>
@@ -27207,17 +27210,17 @@
     </row>
     <row r="473" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="475" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G475">
         <v>4077</v>
@@ -27312,7 +27315,7 @@
     </row>
     <row r="476" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E476">
         <v>488</v>
@@ -27329,7 +27332,7 @@
     </row>
     <row r="477" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C477">
         <v>8863</v>
@@ -27520,7 +27523,7 @@
     </row>
     <row r="478" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H478">
         <v>3546</v>
@@ -27573,7 +27576,7 @@
     </row>
     <row r="479" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="V479">
         <v>530</v>
@@ -27584,17 +27587,17 @@
     </row>
     <row r="480" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="481" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="482" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J482">
         <v>2120</v>
@@ -27620,7 +27623,7 @@
     </row>
     <row r="483" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B483">
         <v>9650</v>
@@ -27772,12 +27775,12 @@
     </row>
     <row r="484" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="485" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AQ485">
         <v>816</v>
@@ -27785,7 +27788,7 @@
     </row>
     <row r="486" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B486">
         <v>348927</v>
@@ -28009,12 +28012,12 @@
     </row>
     <row r="487" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="488" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="Q488">
         <v>2668</v>
@@ -28043,7 +28046,7 @@
     </row>
     <row r="489" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AY489">
         <v>676</v>
@@ -28051,12 +28054,12 @@
     </row>
     <row r="490" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="491" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B491">
         <v>476214</v>
@@ -28280,7 +28283,7 @@
     </row>
     <row r="492" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G492">
         <v>1043</v>
@@ -28309,7 +28312,7 @@
     </row>
     <row r="493" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B493">
         <v>10059</v>
@@ -28533,17 +28536,17 @@
     </row>
     <row r="494" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="495" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="496" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C496">
         <v>654</v>
@@ -28554,7 +28557,7 @@
     </row>
     <row r="497" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B497">
         <v>1837916</v>
@@ -28778,7 +28781,7 @@
     </row>
     <row r="498" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B498">
         <v>1554</v>
@@ -28948,12 +28951,12 @@
     </row>
     <row r="499" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="500" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="W500">
         <v>2162</v>
@@ -28964,7 +28967,7 @@
     </row>
     <row r="501" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B501">
         <v>1620</v>
@@ -29158,12 +29161,12 @@
     </row>
     <row r="502" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="503" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B503">
         <v>67058</v>
@@ -29387,7 +29390,7 @@
     </row>
     <row r="504" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D504">
         <v>6391</v>
@@ -29512,7 +29515,7 @@
     </row>
     <row r="505" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B505">
         <v>32599584</v>
@@ -29736,12 +29739,12 @@
     </row>
     <row r="506" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="507" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B507">
         <v>899</v>
@@ -29824,7 +29827,7 @@
     </row>
     <row r="508" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B508">
         <v>4040</v>
@@ -29928,7 +29931,7 @@
     </row>
     <row r="509" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E509">
         <v>1646</v>
@@ -30032,17 +30035,17 @@
     </row>
     <row r="510" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="511" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="512" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H512">
         <v>1257</v>
@@ -30068,7 +30071,7 @@
     </row>
     <row r="513" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AX513">
         <v>3774</v>
@@ -30076,7 +30079,7 @@
     </row>
     <row r="514" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F514">
         <v>4781</v>
@@ -30117,7 +30120,7 @@
     </row>
     <row r="515" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E515">
         <v>930</v>
@@ -30152,7 +30155,7 @@
     </row>
     <row r="516" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B516">
         <v>13068</v>
@@ -30364,7 +30367,7 @@
     </row>
     <row r="517" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C517">
         <v>15447</v>
@@ -30498,17 +30501,17 @@
     </row>
     <row r="518" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="519" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="520" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B520">
         <v>13359</v>
@@ -30612,7 +30615,7 @@
     </row>
     <row r="521" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C521">
         <v>936</v>
@@ -30740,12 +30743,12 @@
     </row>
     <row r="522" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="523" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E523">
         <v>4653</v>
@@ -30819,7 +30822,7 @@
     </row>
     <row r="524" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B524">
         <v>2459</v>
@@ -30965,7 +30968,7 @@
     </row>
     <row r="525" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="L525">
         <v>626</v>
@@ -30973,7 +30976,7 @@
     </row>
     <row r="526" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AV526">
         <v>1288</v>
@@ -30981,12 +30984,12 @@
     </row>
     <row r="527" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="528" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D528">
         <v>4851</v>
@@ -31072,7 +31075,7 @@
     </row>
     <row r="529" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C529">
         <v>2889</v>
@@ -31146,7 +31149,7 @@
     </row>
     <row r="530" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B530">
         <v>472</v>
@@ -31265,7 +31268,7 @@
     </row>
     <row r="531" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q531">
         <v>676</v>
@@ -31276,7 +31279,7 @@
     </row>
     <row r="532" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L532">
         <v>612</v>
@@ -31293,17 +31296,17 @@
     </row>
     <row r="533" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="534" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="535" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q535">
         <v>3987</v>
@@ -31323,7 +31326,7 @@
     </row>
     <row r="536" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B536">
         <v>461563</v>
@@ -31547,7 +31550,7 @@
     </row>
     <row r="537" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E537">
         <v>19845</v>
@@ -31678,17 +31681,17 @@
     </row>
     <row r="538" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="539" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="540" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="L540">
         <v>732</v>
@@ -31699,7 +31702,7 @@
     </row>
     <row r="541" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AI541">
         <v>465</v>
@@ -31710,7 +31713,7 @@
     </row>
     <row r="542" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="AQ542">
         <v>671</v>
@@ -31721,7 +31724,7 @@
     </row>
     <row r="543" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B543">
         <v>162541</v>
@@ -31945,12 +31948,12 @@
     </row>
     <row r="544" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="545" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="BS545">
         <v>706</v>
@@ -31958,7 +31961,7 @@
     </row>
     <row r="546" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L546">
         <v>3646</v>
@@ -32008,17 +32011,17 @@
     </row>
     <row r="547" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="548" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="549" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B549">
         <v>7975</v>
@@ -32224,7 +32227,7 @@
     </row>
     <row r="550" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B550">
         <v>2581</v>
@@ -32397,12 +32400,12 @@
     </row>
     <row r="551" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="552" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B552">
         <v>11590</v>
@@ -32617,7 +32620,7 @@
     </row>
     <row r="553" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="X553">
         <v>1401</v>
@@ -32634,7 +32637,7 @@
     </row>
     <row r="554" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="I554">
         <v>687</v>
@@ -32651,7 +32654,7 @@
     </row>
     <row r="555" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B555">
         <v>312161</v>
@@ -32875,7 +32878,7 @@
     </row>
     <row r="556" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B556">
         <v>17122</v>
@@ -33099,7 +33102,7 @@
     </row>
     <row r="557" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H557">
         <v>1008</v>
@@ -33125,22 +33128,22 @@
     </row>
     <row r="558" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="559" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="560" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="561" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B561">
         <v>20481</v>
@@ -33364,7 +33367,7 @@
     </row>
     <row r="562" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AT562">
         <v>469</v>
@@ -33375,7 +33378,7 @@
     </row>
     <row r="563" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q563">
         <v>1479</v>
@@ -33383,7 +33386,7 @@
     </row>
     <row r="564" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AT564">
         <v>335</v>
@@ -33394,7 +33397,7 @@
     </row>
     <row r="565" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AA565">
         <v>1161</v>
@@ -33405,7 +33408,7 @@
     </row>
     <row r="566" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B566">
         <v>399</v>
@@ -33629,12 +33632,12 @@
     </row>
     <row r="567" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="568" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E568">
         <v>2097</v>
@@ -33735,7 +33738,7 @@
     </row>
     <row r="569" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B569">
         <v>1290</v>
@@ -33857,7 +33860,7 @@
     </row>
     <row r="570" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="R570">
         <v>1084</v>
@@ -33865,12 +33868,12 @@
     </row>
     <row r="571" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="572" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L572">
         <v>3080</v>
@@ -33884,17 +33887,17 @@
     </row>
     <row r="573" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="574" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="575" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D575">
         <v>1655</v>
@@ -33959,7 +33962,7 @@
     </row>
     <row r="576" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B576">
         <v>213287</v>
@@ -34183,12 +34186,12 @@
     </row>
     <row r="577" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="578" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q578">
         <v>435</v>
@@ -34214,12 +34217,12 @@
     </row>
     <row r="579" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="580" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D580">
         <v>6298</v>
@@ -34362,7 +34365,7 @@
     </row>
     <row r="581" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B581">
         <v>25500</v>
@@ -34586,22 +34589,22 @@
     </row>
     <row r="582" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="583" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="584" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="585" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C585">
         <v>464</v>
@@ -34651,22 +34654,22 @@
     </row>
     <row r="586" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="587" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="588" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="589" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B589">
         <v>269</v>
@@ -34890,7 +34893,7 @@
     </row>
     <row r="590" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C590">
         <v>37641</v>
@@ -35006,7 +35009,7 @@
     </row>
     <row r="591" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AU591">
         <v>1275</v>
@@ -35014,7 +35017,7 @@
     </row>
     <row r="592" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C592">
         <v>2790</v>
@@ -35190,7 +35193,7 @@
     </row>
     <row r="593" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L593">
         <v>3128</v>
@@ -35207,7 +35210,7 @@
     </row>
     <row r="594" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E594">
         <v>1160</v>
@@ -35263,7 +35266,7 @@
     </row>
     <row r="595" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AF595">
         <v>660</v>
@@ -35274,7 +35277,7 @@
     </row>
     <row r="596" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B596">
         <v>692</v>
@@ -35459,7 +35462,7 @@
     </row>
     <row r="597" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="AH597">
         <v>748</v>
@@ -35473,7 +35476,7 @@
     </row>
     <row r="598" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B598">
         <v>1248</v>
@@ -35631,7 +35634,7 @@
     </row>
     <row r="599" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="I599">
         <v>4925</v>
@@ -35699,7 +35702,7 @@
     </row>
     <row r="600" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E600">
         <v>13108</v>
@@ -35824,7 +35827,7 @@
     </row>
     <row r="601" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E601">
         <v>998</v>
@@ -35847,7 +35850,7 @@
     </row>
     <row r="602" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G602">
         <v>644</v>
@@ -35936,7 +35939,7 @@
     </row>
     <row r="603" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G603">
         <v>3175</v>
@@ -35959,7 +35962,7 @@
     </row>
     <row r="604" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B604">
         <v>1266</v>
@@ -35991,7 +35994,7 @@
     </row>
     <row r="605" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B605">
         <v>228247</v>
@@ -36203,7 +36206,7 @@
     </row>
     <row r="606" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C606">
         <v>1156</v>
@@ -36244,12 +36247,12 @@
     </row>
     <row r="607" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="608" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B608">
         <v>3688</v>
@@ -36302,17 +36305,17 @@
     </row>
     <row r="609" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="610" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="611" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F611">
         <v>998</v>
@@ -36425,7 +36428,7 @@
     </row>
     <row r="612" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C612">
         <v>2586</v>
@@ -36601,7 +36604,7 @@
     </row>
     <row r="613" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F613">
         <v>2353</v>
@@ -36723,7 +36726,7 @@
     </row>
     <row r="614" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B614">
         <v>1913</v>
@@ -36914,7 +36917,7 @@
     </row>
     <row r="615" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B615">
         <v>118315</v>
@@ -37138,7 +37141,7 @@
     </row>
     <row r="616" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C616">
         <v>2261</v>
@@ -37227,7 +37230,7 @@
     </row>
     <row r="617" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B617">
         <v>2222</v>
@@ -37268,12 +37271,12 @@
     </row>
     <row r="618" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="619" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="N619">
         <v>563</v>
@@ -37323,12 +37326,12 @@
     </row>
     <row r="620" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="621" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B621">
         <v>7377</v>
@@ -37495,17 +37498,17 @@
     </row>
     <row r="622" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="623" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="624" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B624">
         <v>1843</v>
@@ -37651,7 +37654,7 @@
     </row>
     <row r="625" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="BI625">
         <v>806</v>
@@ -37659,7 +37662,7 @@
     </row>
     <row r="626" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C626">
         <v>2199</v>
@@ -37781,7 +37784,7 @@
     </row>
     <row r="627" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I627">
         <v>2161</v>
